--- a/data/case1/2/cost_13.xlsx
+++ b/data/case1/2/cost_13.xlsx
@@ -63,13 +63,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>149.02555012346249</v>
+        <v>149.02020144718145</v>
       </c>
       <c r="B1" s="0">
-        <v>3.0673869145864119</v>
+        <v>3.8527990949703828</v>
       </c>
       <c r="C1" s="0">
-        <v>3.7834311806914545</v>
+        <v>2.3646444879321589</v>
       </c>
     </row>
   </sheetData>
